--- a/biology/Zoologie/Lycorina_indura/Lycorina_indura.xlsx
+++ b/biology/Zoologie/Lycorina_indura/Lycorina_indura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pimpla indura
 Lycorina indura est une espèce fossile d’insectes hyménoptères de la tribu des Pimplini, dans la grande famille des Ichneumonidae.
@@ -512,15 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Lycorina indura est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981), dans sa thèse, sous le protonyme Pimpla indura[1],[2]. 
-Fossiles
-L'holotype R865+587 (empreinte et contre-empreinte), de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel). 
-Renommage
-Le reclassement dans le genre Lycorina est accordé en 2022 à Tamara Spasojevic (d) et al.[3]
-Étymologie
-L'épithète spécifique indura signifie en latin « dur ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Lycorina indura est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981), dans sa thèse, sous le protonyme Pimpla indura,. 
 </t>
         </is>
       </c>
@@ -546,19 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 2] : 
-« Insecte incomplet à tête et thorax noirs, abdomen clair avec taches brunes. Ailes transparentes (?)
-Tête transversale, aussi large que le thorax ; deux yeux composés saillants ; antennes mal conservées, premier article court et gros, deuxième cylindrique, les suivants manquent ; trois ocelles sur le vertex ; tête rétrécie à l'arrière. Thorax nettement segmenté, maximum de largeur au tiers antérieur, allongé vers l'arrière. Abdomen sessile, quatre segments visibles, deux taches brunes latérales sur chaque segment. Pattes grêles, jaunes. Ailes transparentes, mal conservées. »[1].
-Dimensions
-La longueur totale est de 8,5 mm, la longueur de la tête est de 1 mm et la largeur de 1,5 mm, la longueur du thorax est de 3,5 mmm et la largeur de 1,5 mm, la longueur de l'abdomen est de 4 mm, et la largeur de 1,5 mm[1].
-Affinités
-« Voisin de Pimpla celebensis Seyrig (d) de Célèbes. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R865+587 (empreinte et contre-empreinte), de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel). 
 </t>
         </is>
       </c>
@@ -584,13 +591,204 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le reclassement dans le genre Lycorina est accordé en 2022 à Tamara Spasojevic (d) et al.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lycorina_indura</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lycorina_indura</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique indura signifie en latin « dur ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lycorina_indura</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lycorina_indura</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte incomplet à tête et thorax noirs, abdomen clair avec taches brunes. Ailes transparentes (?)
+Tête transversale, aussi large que le thorax ; deux yeux composés saillants ; antennes mal conservées, premier article court et gros, deuxième cylindrique, les suivants manquent ; trois ocelles sur le vertex ; tête rétrécie à l'arrière. Thorax nettement segmenté, maximum de largeur au tiers antérieur, allongé vers l'arrière. Abdomen sessile, quatre segments visibles, deux taches brunes latérales sur chaque segment. Pattes grêles, jaunes. Ailes transparentes, mal conservées. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lycorina_indura</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lycorina_indura</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 8,5 mm, la longueur de la tête est de 1 mm et la largeur de 1,5 mm, la longueur du thorax est de 3,5 mmm et la largeur de 1,5 mm, la longueur de l'abdomen est de 4 mm, et la largeur de 1,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lycorina_indura</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lycorina_indura</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Voisin de Pimpla celebensis Seyrig (d) de Célèbes. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lycorina_indura</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lycorina_indura</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le g. Pimpla est cosmopolite. »[1].
+« Le g. Pimpla est cosmopolite. ».
 </t>
         </is>
       </c>
